--- a/input_data/ef_curve_lm2500.xlsx
+++ b/input_data/ef_curve_lm2500.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus\Desktop\Poli\IC Eólica\LGridPy for dummies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus\Desktop\Poli\IC Eólica\LGridPy\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B670B-7217-427F-A70A-566240FFAC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8901FCCA-E8DE-469B-9ECF-88247A35E241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>0-xaxis</t>
   </si>
   <si>
     <t>0-yaxis</t>
+  </si>
+  <si>
+    <t>0-zaxis</t>
   </si>
 </sst>
 </file>
@@ -258,13 +261,13 @@
                   <c:v>5.2919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>10.208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>15.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>20.457999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26.292000000000002</c:v>
@@ -282,7 +285,7 @@
                   <c:v>37.667000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>38.167000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,7 +1508,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1517,6 +1520,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -1525,16 +1531,19 @@
       <c r="B2">
         <v>5.2919999999999998</v>
       </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19.71</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10.208</v>
       </c>
       <c r="C3">
-        <v>10.208</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1542,10 +1551,10 @@
         <v>29.855</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>15.292</v>
       </c>
       <c r="C4">
-        <v>15.292</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1553,10 +1562,10 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>20.457999999999998</v>
       </c>
       <c r="C5">
-        <v>20.457999999999998</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1566,6 +1575,9 @@
       <c r="B6">
         <v>26.292000000000002</v>
       </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1574,6 +1586,9 @@
       <c r="B7">
         <v>31</v>
       </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1582,6 +1597,9 @@
       <c r="B8">
         <v>33.457999999999998</v>
       </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1590,6 +1608,9 @@
       <c r="B9">
         <v>35.75</v>
       </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1598,16 +1619,19 @@
       <c r="B10">
         <v>37.667000000000002</v>
       </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100.435</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>38.167000000000002</v>
       </c>
       <c r="C11">
-        <v>38.167000000000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
